--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,18 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['48', '52', '57']</t>
+  </si>
+  <si>
+    <t>['38', '45+1']</t>
+  </si>
+  <si>
+    <t>['11', '15', '24', '51']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -571,9 +583,6 @@
     <t>['3', '25']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['33', '83', '88']</t>
   </si>
   <si>
@@ -659,6 +668,15 @@
   </si>
   <si>
     <t>['27', '47']</t>
+  </si>
+  <si>
+    <t>['7', '35', '58', '81']</t>
+  </si>
+  <si>
+    <t>['5', '39', '44']</t>
+  </si>
+  <si>
+    <t>['19', '45+1', '69', '87']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1360,7 +1378,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1485,7 +1503,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1691,7 +1709,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -1897,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2103,7 +2121,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.05</v>
@@ -2181,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ6">
         <v>1.86</v>
@@ -2596,7 +2614,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2799,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3005,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3133,7 +3151,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3211,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3339,7 +3357,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3417,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3623,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3957,7 +3975,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4038,7 +4056,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4163,7 +4181,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4241,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4369,7 +4387,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4575,7 +4593,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -4656,7 +4674,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>1.17</v>
@@ -4781,7 +4799,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -4862,7 +4880,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>0.97</v>
@@ -4987,7 +5005,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5068,7 +5086,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR20">
         <v>0.71</v>
@@ -5193,7 +5211,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5271,7 +5289,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
         <v>2.29</v>
@@ -5399,7 +5417,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5683,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ23">
         <v>0.57</v>
@@ -5811,7 +5829,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6017,7 +6035,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6223,7 +6241,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6429,7 +6447,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6713,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR28">
         <v>1.55</v>
@@ -6841,7 +6859,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -6919,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7047,7 +7065,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7125,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7253,7 +7271,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7537,10 +7555,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7743,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -7871,7 +7889,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -7952,7 +7970,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8077,7 +8095,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8155,7 +8173,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8283,7 +8301,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8361,10 +8379,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR36">
         <v>1.65</v>
@@ -8489,7 +8507,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8695,7 +8713,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -8776,7 +8794,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ38">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>0.95</v>
@@ -8982,7 +9000,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
         <v>0.82</v>
@@ -9107,7 +9125,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9185,7 +9203,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ40">
         <v>2.29</v>
@@ -9313,7 +9331,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9519,7 +9537,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9597,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1.71</v>
@@ -9803,10 +9821,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -9931,7 +9949,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10137,7 +10155,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10218,7 +10236,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>0.9399999999999999</v>
@@ -10343,7 +10361,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10549,7 +10567,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10630,7 +10648,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ47">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR47">
         <v>1.13</v>
@@ -10755,7 +10773,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10833,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ48">
         <v>1.86</v>
@@ -10961,7 +10979,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11039,7 +11057,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11248,7 +11266,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.26</v>
@@ -11373,7 +11391,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11451,7 +11469,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>2.29</v>
@@ -11579,7 +11597,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -11660,7 +11678,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11991,7 +12009,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12072,7 +12090,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ54">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12275,7 +12293,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55">
         <v>1.71</v>
@@ -12403,7 +12421,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12609,7 +12627,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -12687,10 +12705,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -12815,7 +12833,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -12893,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -13308,7 +13326,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR60">
         <v>1.45</v>
@@ -13433,7 +13451,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13511,7 +13529,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
         <v>0.57</v>
@@ -13845,7 +13863,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -13926,7 +13944,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ63">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14129,7 +14147,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14257,7 +14275,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14463,7 +14481,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14669,7 +14687,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14750,7 +14768,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
         <v>1.77</v>
@@ -14875,7 +14893,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -14956,7 +14974,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.14</v>
@@ -15159,7 +15177,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>1.86</v>
@@ -15365,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15493,7 +15511,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15571,10 +15589,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -15986,7 +16004,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ73">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR73">
         <v>1.39</v>
@@ -16317,7 +16335,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16398,7 +16416,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16523,7 +16541,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16601,10 +16619,10 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -16729,7 +16747,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16810,7 +16828,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.02</v>
@@ -16935,7 +16953,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17013,10 +17031,10 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ78">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR78">
         <v>1.34</v>
@@ -17141,7 +17159,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17219,7 +17237,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ79">
         <v>1.14</v>
@@ -17425,7 +17443,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17553,7 +17571,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17631,7 +17649,7 @@
         <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17837,7 +17855,7 @@
         <v>2.4</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82">
         <v>1.86</v>
@@ -18046,7 +18064,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ83">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR83">
         <v>1.17</v>
@@ -18171,7 +18189,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="Q84">
         <v>1.95</v>
@@ -18377,7 +18395,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18455,7 +18473,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ85">
         <v>0.57</v>
@@ -18583,7 +18601,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18995,7 +19013,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19076,7 +19094,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ88">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19201,7 +19219,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19279,10 +19297,10 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19407,7 +19425,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19488,7 +19506,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.43</v>
@@ -19691,7 +19709,7 @@
         <v>2.6</v>
       </c>
       <c r="AP91">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ91">
         <v>2.29</v>
@@ -19819,7 +19837,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20025,7 +20043,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20106,7 +20124,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ93">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20231,7 +20249,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20309,10 +20327,10 @@
         <v>1.8</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>1.93</v>
@@ -20437,7 +20455,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20515,10 +20533,10 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -20721,7 +20739,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ96">
         <v>0.5</v>
@@ -20849,7 +20867,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -20927,10 +20945,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21133,7 +21151,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98">
         <v>0.57</v>
@@ -21261,7 +21279,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21467,7 +21485,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21548,7 +21566,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -21673,7 +21691,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22085,7 +22103,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22291,7 +22309,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22654,6 +22672,1448 @@
       </c>
       <c r="BP105">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7484642</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45618.58333333334</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>86</v>
+      </c>
+      <c r="P106" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q106">
+        <v>2.88</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>3.75</v>
+      </c>
+      <c r="T106">
+        <v>1.42</v>
+      </c>
+      <c r="U106">
+        <v>2.74</v>
+      </c>
+      <c r="V106">
+        <v>2.99</v>
+      </c>
+      <c r="W106">
+        <v>1.36</v>
+      </c>
+      <c r="X106">
+        <v>7.9</v>
+      </c>
+      <c r="Y106">
+        <v>1.06</v>
+      </c>
+      <c r="Z106">
+        <v>2.25</v>
+      </c>
+      <c r="AA106">
+        <v>3.2</v>
+      </c>
+      <c r="AB106">
+        <v>3.2</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AD106">
+        <v>8.1</v>
+      </c>
+      <c r="AE106">
+        <v>1.27</v>
+      </c>
+      <c r="AF106">
+        <v>3.04</v>
+      </c>
+      <c r="AG106">
+        <v>2.2</v>
+      </c>
+      <c r="AH106">
+        <v>1.65</v>
+      </c>
+      <c r="AI106">
+        <v>1.91</v>
+      </c>
+      <c r="AJ106">
+        <v>1.8</v>
+      </c>
+      <c r="AK106">
+        <v>1.33</v>
+      </c>
+      <c r="AL106">
+        <v>1.3</v>
+      </c>
+      <c r="AM106">
+        <v>1.64</v>
+      </c>
+      <c r="AN106">
+        <v>1.33</v>
+      </c>
+      <c r="AO106">
+        <v>0.83</v>
+      </c>
+      <c r="AP106">
+        <v>1.14</v>
+      </c>
+      <c r="AQ106">
+        <v>1.14</v>
+      </c>
+      <c r="AR106">
+        <v>1.34</v>
+      </c>
+      <c r="AS106">
+        <v>1.32</v>
+      </c>
+      <c r="AT106">
+        <v>2.66</v>
+      </c>
+      <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>9</v>
+      </c>
+      <c r="AW106">
+        <v>0</v>
+      </c>
+      <c r="AX106">
+        <v>9</v>
+      </c>
+      <c r="AY106">
+        <v>3</v>
+      </c>
+      <c r="AZ106">
+        <v>22</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>9</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>1.67</v>
+      </c>
+      <c r="BE106">
+        <v>6.6</v>
+      </c>
+      <c r="BF106">
+        <v>2.83</v>
+      </c>
+      <c r="BG106">
+        <v>1.23</v>
+      </c>
+      <c r="BH106">
+        <v>3.28</v>
+      </c>
+      <c r="BI106">
+        <v>1.46</v>
+      </c>
+      <c r="BJ106">
+        <v>2.38</v>
+      </c>
+      <c r="BK106">
+        <v>1.84</v>
+      </c>
+      <c r="BL106">
+        <v>1.86</v>
+      </c>
+      <c r="BM106">
+        <v>2.3</v>
+      </c>
+      <c r="BN106">
+        <v>1.49</v>
+      </c>
+      <c r="BO106">
+        <v>3.08</v>
+      </c>
+      <c r="BP106">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7484641</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45618.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>84</v>
+      </c>
+      <c r="H107" t="s">
+        <v>82</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>86</v>
+      </c>
+      <c r="P107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q107">
+        <v>3.4</v>
+      </c>
+      <c r="R107">
+        <v>2.25</v>
+      </c>
+      <c r="S107">
+        <v>2.75</v>
+      </c>
+      <c r="T107">
+        <v>1.29</v>
+      </c>
+      <c r="U107">
+        <v>3.4</v>
+      </c>
+      <c r="V107">
+        <v>2.4</v>
+      </c>
+      <c r="W107">
+        <v>1.53</v>
+      </c>
+      <c r="X107">
+        <v>5.65</v>
+      </c>
+      <c r="Y107">
+        <v>1.12</v>
+      </c>
+      <c r="Z107">
+        <v>3.1</v>
+      </c>
+      <c r="AA107">
+        <v>3.5</v>
+      </c>
+      <c r="AB107">
+        <v>2.15</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.14</v>
+      </c>
+      <c r="AF107">
+        <v>4.2</v>
+      </c>
+      <c r="AG107">
+        <v>1.7</v>
+      </c>
+      <c r="AH107">
+        <v>2.1</v>
+      </c>
+      <c r="AI107">
+        <v>1.57</v>
+      </c>
+      <c r="AJ107">
+        <v>2.25</v>
+      </c>
+      <c r="AK107">
+        <v>1.6</v>
+      </c>
+      <c r="AL107">
+        <v>1.26</v>
+      </c>
+      <c r="AM107">
+        <v>1.4</v>
+      </c>
+      <c r="AN107">
+        <v>2.17</v>
+      </c>
+      <c r="AO107">
+        <v>1.71</v>
+      </c>
+      <c r="AP107">
+        <v>1.86</v>
+      </c>
+      <c r="AQ107">
+        <v>1.88</v>
+      </c>
+      <c r="AR107">
+        <v>1.93</v>
+      </c>
+      <c r="AS107">
+        <v>1.55</v>
+      </c>
+      <c r="AT107">
+        <v>3.48</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
+        <v>6</v>
+      </c>
+      <c r="AX107">
+        <v>3</v>
+      </c>
+      <c r="AY107">
+        <v>13</v>
+      </c>
+      <c r="AZ107">
+        <v>8</v>
+      </c>
+      <c r="BA107">
+        <v>8</v>
+      </c>
+      <c r="BB107">
+        <v>4</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>2.2</v>
+      </c>
+      <c r="BE107">
+        <v>6.4</v>
+      </c>
+      <c r="BF107">
+        <v>2.02</v>
+      </c>
+      <c r="BG107">
+        <v>1.18</v>
+      </c>
+      <c r="BH107">
+        <v>3.68</v>
+      </c>
+      <c r="BI107">
+        <v>1.39</v>
+      </c>
+      <c r="BJ107">
+        <v>2.59</v>
+      </c>
+      <c r="BK107">
+        <v>2.38</v>
+      </c>
+      <c r="BL107">
+        <v>2</v>
+      </c>
+      <c r="BM107">
+        <v>2.14</v>
+      </c>
+      <c r="BN107">
+        <v>1.57</v>
+      </c>
+      <c r="BO107">
+        <v>2.78</v>
+      </c>
+      <c r="BP107">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7484639</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45618.58333333334</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>153</v>
+      </c>
+      <c r="P108" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q108">
+        <v>2.88</v>
+      </c>
+      <c r="R108">
+        <v>2.3</v>
+      </c>
+      <c r="S108">
+        <v>3.2</v>
+      </c>
+      <c r="T108">
+        <v>1.3</v>
+      </c>
+      <c r="U108">
+        <v>3.4</v>
+      </c>
+      <c r="V108">
+        <v>2.38</v>
+      </c>
+      <c r="W108">
+        <v>1.53</v>
+      </c>
+      <c r="X108">
+        <v>5.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.13</v>
+      </c>
+      <c r="Z108">
+        <v>2.3</v>
+      </c>
+      <c r="AA108">
+        <v>3.6</v>
+      </c>
+      <c r="AB108">
+        <v>2.75</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>1.62</v>
+      </c>
+      <c r="AH108">
+        <v>2.25</v>
+      </c>
+      <c r="AI108">
+        <v>1.53</v>
+      </c>
+      <c r="AJ108">
+        <v>2.38</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>2.14</v>
+      </c>
+      <c r="AO108">
+        <v>2.17</v>
+      </c>
+      <c r="AP108">
+        <v>1.88</v>
+      </c>
+      <c r="AQ108">
+        <v>2.29</v>
+      </c>
+      <c r="AR108">
+        <v>1.76</v>
+      </c>
+      <c r="AS108">
+        <v>1.62</v>
+      </c>
+      <c r="AT108">
+        <v>3.38</v>
+      </c>
+      <c r="AU108">
+        <v>2</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>2</v>
+      </c>
+      <c r="AY108">
+        <v>7</v>
+      </c>
+      <c r="AZ108">
+        <v>7</v>
+      </c>
+      <c r="BA108">
+        <v>5</v>
+      </c>
+      <c r="BB108">
+        <v>4</v>
+      </c>
+      <c r="BC108">
+        <v>9</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>0</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>0</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7484640</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45618.58333333334</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>86</v>
+      </c>
+      <c r="P109" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q109">
+        <v>3.2</v>
+      </c>
+      <c r="R109">
+        <v>2.5</v>
+      </c>
+      <c r="S109">
+        <v>2.5</v>
+      </c>
+      <c r="T109">
+        <v>1.21</v>
+      </c>
+      <c r="U109">
+        <v>4.15</v>
+      </c>
+      <c r="V109">
+        <v>2.04</v>
+      </c>
+      <c r="W109">
+        <v>1.73</v>
+      </c>
+      <c r="X109">
+        <v>4.4</v>
+      </c>
+      <c r="Y109">
+        <v>1.19</v>
+      </c>
+      <c r="Z109">
+        <v>3</v>
+      </c>
+      <c r="AA109">
+        <v>3.8</v>
+      </c>
+      <c r="AB109">
+        <v>2.1</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>17</v>
+      </c>
+      <c r="AE109">
+        <v>1.06</v>
+      </c>
+      <c r="AF109">
+        <v>5.7</v>
+      </c>
+      <c r="AG109">
+        <v>1.4</v>
+      </c>
+      <c r="AH109">
+        <v>2.75</v>
+      </c>
+      <c r="AI109">
+        <v>1.4</v>
+      </c>
+      <c r="AJ109">
+        <v>2.75</v>
+      </c>
+      <c r="AK109">
+        <v>1.72</v>
+      </c>
+      <c r="AL109">
+        <v>1.23</v>
+      </c>
+      <c r="AM109">
+        <v>1.36</v>
+      </c>
+      <c r="AN109">
+        <v>0.67</v>
+      </c>
+      <c r="AO109">
+        <v>1.29</v>
+      </c>
+      <c r="AP109">
+        <v>0.57</v>
+      </c>
+      <c r="AQ109">
+        <v>1.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.43</v>
+      </c>
+      <c r="AS109">
+        <v>1.65</v>
+      </c>
+      <c r="AT109">
+        <v>3.08</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>11</v>
+      </c>
+      <c r="AZ109">
+        <v>8</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>2</v>
+      </c>
+      <c r="BC109">
+        <v>7</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>0</v>
+      </c>
+      <c r="BG109">
+        <v>0</v>
+      </c>
+      <c r="BH109">
+        <v>0</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7484646</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45618.6875</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s">
+        <v>83</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>154</v>
+      </c>
+      <c r="P110" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q110">
+        <v>1.8</v>
+      </c>
+      <c r="R110">
+        <v>2.5</v>
+      </c>
+      <c r="S110">
+        <v>6.5</v>
+      </c>
+      <c r="T110">
+        <v>1.28</v>
+      </c>
+      <c r="U110">
+        <v>3.48</v>
+      </c>
+      <c r="V110">
+        <v>2.34</v>
+      </c>
+      <c r="W110">
+        <v>1.56</v>
+      </c>
+      <c r="X110">
+        <v>5.3</v>
+      </c>
+      <c r="Y110">
+        <v>1.14</v>
+      </c>
+      <c r="Z110">
+        <v>1.36</v>
+      </c>
+      <c r="AA110">
+        <v>5</v>
+      </c>
+      <c r="AB110">
+        <v>7</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>13</v>
+      </c>
+      <c r="AE110">
+        <v>1.13</v>
+      </c>
+      <c r="AF110">
+        <v>4.25</v>
+      </c>
+      <c r="AG110">
+        <v>1.57</v>
+      </c>
+      <c r="AH110">
+        <v>2.35</v>
+      </c>
+      <c r="AI110">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110">
+        <v>1.83</v>
+      </c>
+      <c r="AK110">
+        <v>1.09</v>
+      </c>
+      <c r="AL110">
+        <v>1.17</v>
+      </c>
+      <c r="AM110">
+        <v>2.74</v>
+      </c>
+      <c r="AN110">
+        <v>1.67</v>
+      </c>
+      <c r="AO110">
+        <v>1.67</v>
+      </c>
+      <c r="AP110">
+        <v>1.86</v>
+      </c>
+      <c r="AQ110">
+        <v>1.43</v>
+      </c>
+      <c r="AR110">
+        <v>1.28</v>
+      </c>
+      <c r="AS110">
+        <v>1.4</v>
+      </c>
+      <c r="AT110">
+        <v>2.68</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>8</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>18</v>
+      </c>
+      <c r="AZ110">
+        <v>11</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
+        <v>12</v>
+      </c>
+      <c r="BD110">
+        <v>1.27</v>
+      </c>
+      <c r="BE110">
+        <v>8</v>
+      </c>
+      <c r="BF110">
+        <v>5.2</v>
+      </c>
+      <c r="BG110">
+        <v>1.28</v>
+      </c>
+      <c r="BH110">
+        <v>2.94</v>
+      </c>
+      <c r="BI110">
+        <v>1.56</v>
+      </c>
+      <c r="BJ110">
+        <v>2.16</v>
+      </c>
+      <c r="BK110">
+        <v>2</v>
+      </c>
+      <c r="BL110">
+        <v>1.72</v>
+      </c>
+      <c r="BM110">
+        <v>2.59</v>
+      </c>
+      <c r="BN110">
+        <v>1.39</v>
+      </c>
+      <c r="BO110">
+        <v>3.55</v>
+      </c>
+      <c r="BP110">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7484645</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45619.4375</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>80</v>
+      </c>
+      <c r="H111" t="s">
+        <v>73</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>155</v>
+      </c>
+      <c r="P111" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q111">
+        <v>2.4</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>4.33</v>
+      </c>
+      <c r="T111">
+        <v>1.36</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>2.63</v>
+      </c>
+      <c r="W111">
+        <v>1.44</v>
+      </c>
+      <c r="X111">
+        <v>6.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.1</v>
+      </c>
+      <c r="Z111">
+        <v>1.83</v>
+      </c>
+      <c r="AA111">
+        <v>3.7</v>
+      </c>
+      <c r="AB111">
+        <v>3.9</v>
+      </c>
+      <c r="AC111">
+        <v>1.04</v>
+      </c>
+      <c r="AD111">
+        <v>9</v>
+      </c>
+      <c r="AE111">
+        <v>1.25</v>
+      </c>
+      <c r="AF111">
+        <v>3.75</v>
+      </c>
+      <c r="AG111">
+        <v>1.85</v>
+      </c>
+      <c r="AH111">
+        <v>1.95</v>
+      </c>
+      <c r="AI111">
+        <v>1.73</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>1.2</v>
+      </c>
+      <c r="AL111">
+        <v>1.2</v>
+      </c>
+      <c r="AM111">
+        <v>1.9</v>
+      </c>
+      <c r="AN111">
+        <v>1.5</v>
+      </c>
+      <c r="AO111">
+        <v>1</v>
+      </c>
+      <c r="AP111">
+        <v>1.71</v>
+      </c>
+      <c r="AQ111">
+        <v>0.86</v>
+      </c>
+      <c r="AR111">
+        <v>1.21</v>
+      </c>
+      <c r="AS111">
+        <v>1</v>
+      </c>
+      <c r="AT111">
+        <v>2.21</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AW111">
+        <v>4</v>
+      </c>
+      <c r="AX111">
+        <v>4</v>
+      </c>
+      <c r="AY111">
+        <v>11</v>
+      </c>
+      <c r="AZ111">
+        <v>5</v>
+      </c>
+      <c r="BA111">
+        <v>3</v>
+      </c>
+      <c r="BB111">
+        <v>6</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>1.49</v>
+      </c>
+      <c r="BE111">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF111">
+        <v>3.12</v>
+      </c>
+      <c r="BG111">
+        <v>1.19</v>
+      </c>
+      <c r="BH111">
+        <v>3.56</v>
+      </c>
+      <c r="BI111">
+        <v>1.41</v>
+      </c>
+      <c r="BJ111">
+        <v>2.52</v>
+      </c>
+      <c r="BK111">
+        <v>1.75</v>
+      </c>
+      <c r="BL111">
+        <v>1.96</v>
+      </c>
+      <c r="BM111">
+        <v>2.17</v>
+      </c>
+      <c r="BN111">
+        <v>1.55</v>
+      </c>
+      <c r="BO111">
+        <v>2.88</v>
+      </c>
+      <c r="BP111">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7484647</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45619.4375</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>74</v>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>156</v>
+      </c>
+      <c r="P112" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q112">
+        <v>2.75</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>3.75</v>
+      </c>
+      <c r="T112">
+        <v>1.4</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>7</v>
+      </c>
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>2.1</v>
+      </c>
+      <c r="AA112">
+        <v>3.4</v>
+      </c>
+      <c r="AB112">
+        <v>3.3</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>8.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.33</v>
+      </c>
+      <c r="AF112">
+        <v>3.2</v>
+      </c>
+      <c r="AG112">
+        <v>1.95</v>
+      </c>
+      <c r="AH112">
+        <v>1.85</v>
+      </c>
+      <c r="AI112">
+        <v>1.73</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>1.25</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.8</v>
+      </c>
+      <c r="AN112">
+        <v>2.29</v>
+      </c>
+      <c r="AO112">
+        <v>2.17</v>
+      </c>
+      <c r="AP112">
+        <v>2.38</v>
+      </c>
+      <c r="AQ112">
+        <v>1.86</v>
+      </c>
+      <c r="AR112">
+        <v>1.39</v>
+      </c>
+      <c r="AS112">
+        <v>1.45</v>
+      </c>
+      <c r="AT112">
+        <v>2.84</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>13</v>
+      </c>
+      <c r="AZ112">
+        <v>12</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>8</v>
+      </c>
+      <c r="BC112">
+        <v>10</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>0</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>2.2</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -23020,22 +23020,22 @@
         <v>3.48</v>
       </c>
       <c r="AU107">
+        <v>6</v>
+      </c>
+      <c r="AV107">
         <v>4</v>
-      </c>
-      <c r="AV107">
-        <v>3</v>
       </c>
       <c r="AW107">
         <v>6</v>
       </c>
       <c r="AX107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY107">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA107">
         <v>8</v>
@@ -23235,13 +23235,13 @@
         <v>3</v>
       </c>
       <c r="AX108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA108">
         <v>5</v>
@@ -23432,7 +23432,7 @@
         <v>3.08</v>
       </c>
       <c r="AU109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV109">
         <v>5</v>
@@ -23441,13 +23441,13 @@
         <v>4</v>
       </c>
       <c r="AX109">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY109">
+        <v>13</v>
+      </c>
+      <c r="AZ109">
         <v>11</v>
-      </c>
-      <c r="AZ109">
-        <v>8</v>
       </c>
       <c r="BA109">
         <v>5</v>
@@ -23650,7 +23650,7 @@
         <v>3</v>
       </c>
       <c r="AY110">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ110">
         <v>11</v>
@@ -23844,22 +23844,22 @@
         <v>2.21</v>
       </c>
       <c r="AU111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV111">
         <v>0</v>
       </c>
       <c r="AW111">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX111">
         <v>4</v>
       </c>
       <c r="AY111">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA111">
         <v>3</v>
@@ -24059,13 +24059,13 @@
         <v>5</v>
       </c>
       <c r="AX112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY112">
         <v>13</v>
       </c>
       <c r="AZ112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA112">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -678,6 +678,9 @@
   <si>
     <t>['19', '45+1', '69', '87']</t>
   </si>
+  <si>
+    <t>['43']</t>
+  </si>
 </sst>
 </file>
 
@@ -1038,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2405,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7">
         <v>0.57</v>
@@ -3026,7 +3029,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5495,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ22">
         <v>1.14</v>
@@ -7146,7 +7149,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR30">
         <v>1.86</v>
@@ -8585,7 +8588,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -11263,7 +11266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11884,7 +11887,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR53">
         <v>0.98</v>
@@ -13120,7 +13123,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR59">
         <v>1.05</v>
@@ -16207,7 +16210,7 @@
         <v>3</v>
       </c>
       <c r="AP74">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74">
         <v>2.29</v>
@@ -18270,7 +18273,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -19915,7 +19918,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20742,7 +20745,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -24114,6 +24117,212 @@
       </c>
       <c r="BP112">
         <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7484644</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45622.60416666666</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s">
+        <v>72</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>137</v>
+      </c>
+      <c r="P113" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q113">
+        <v>2.25</v>
+      </c>
+      <c r="R113">
+        <v>2.2</v>
+      </c>
+      <c r="S113">
+        <v>5</v>
+      </c>
+      <c r="T113">
+        <v>1.36</v>
+      </c>
+      <c r="U113">
+        <v>3</v>
+      </c>
+      <c r="V113">
+        <v>2.75</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>6.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.1</v>
+      </c>
+      <c r="Z113">
+        <v>1.67</v>
+      </c>
+      <c r="AA113">
+        <v>3.7</v>
+      </c>
+      <c r="AB113">
+        <v>5</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>9</v>
+      </c>
+      <c r="AE113">
+        <v>1.25</v>
+      </c>
+      <c r="AF113">
+        <v>3.6</v>
+      </c>
+      <c r="AG113">
+        <v>1.95</v>
+      </c>
+      <c r="AH113">
+        <v>1.85</v>
+      </c>
+      <c r="AI113">
+        <v>1.91</v>
+      </c>
+      <c r="AJ113">
+        <v>1.8</v>
+      </c>
+      <c r="AK113">
+        <v>1.15</v>
+      </c>
+      <c r="AL113">
+        <v>1.2</v>
+      </c>
+      <c r="AM113">
+        <v>2.1</v>
+      </c>
+      <c r="AN113">
+        <v>0.83</v>
+      </c>
+      <c r="AO113">
+        <v>0.5</v>
+      </c>
+      <c r="AP113">
+        <v>0.86</v>
+      </c>
+      <c r="AQ113">
+        <v>0.57</v>
+      </c>
+      <c r="AR113">
+        <v>1.3</v>
+      </c>
+      <c r="AS113">
+        <v>1.07</v>
+      </c>
+      <c r="AT113">
+        <v>2.37</v>
+      </c>
+      <c r="AU113">
+        <v>0</v>
+      </c>
+      <c r="AV113">
+        <v>2</v>
+      </c>
+      <c r="AW113">
+        <v>7</v>
+      </c>
+      <c r="AX113">
+        <v>5</v>
+      </c>
+      <c r="AY113">
+        <v>8</v>
+      </c>
+      <c r="AZ113">
+        <v>9</v>
+      </c>
+      <c r="BA113">
+        <v>5</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>8</v>
+      </c>
+      <c r="BD113">
+        <v>1.36</v>
+      </c>
+      <c r="BE113">
+        <v>9.5</v>
+      </c>
+      <c r="BF113">
+        <v>3.78</v>
+      </c>
+      <c r="BG113">
+        <v>1.18</v>
+      </c>
+      <c r="BH113">
+        <v>3.74</v>
+      </c>
+      <c r="BI113">
+        <v>1.38</v>
+      </c>
+      <c r="BJ113">
+        <v>2.62</v>
+      </c>
+      <c r="BK113">
+        <v>2.2</v>
+      </c>
+      <c r="BL113">
+        <v>2.03</v>
+      </c>
+      <c r="BM113">
+        <v>2.1</v>
+      </c>
+      <c r="BN113">
+        <v>1.59</v>
+      </c>
+      <c r="BO113">
+        <v>2.73</v>
+      </c>
+      <c r="BP113">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -24259,13 +24259,13 @@
         <v>2.37</v>
       </c>
       <c r="AU113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV113">
         <v>2</v>
       </c>
       <c r="AW113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX113">
         <v>5</v>
@@ -24274,7 +24274,7 @@
         <v>8</v>
       </c>
       <c r="AZ113">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA113">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,12 @@
     <t>['11', '15', '24', '51']</t>
   </si>
   <si>
+    <t>['11', '78']</t>
+  </si>
+  <si>
+    <t>['46', '51', '68']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -680,6 +686,12 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['25', '31', '69']</t>
+  </si>
+  <si>
+    <t>['12', '59', '70']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1312,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1378,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2">
         <v>2.29</v>
@@ -1506,7 +1518,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1584,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1712,7 +1724,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -1790,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ4">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1918,7 +1930,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -1996,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ5">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2124,7 +2136,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2.05</v>
@@ -2411,7 +2423,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2614,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
         <v>1.43</v>
@@ -3154,7 +3166,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3360,7 +3372,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3850,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3978,7 +3990,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4184,7 +4196,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4390,7 +4402,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4468,10 +4480,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4596,7 +4608,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -4674,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -4802,7 +4814,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -4880,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
         <v>0.86</v>
@@ -5008,7 +5020,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5086,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ20">
         <v>2.29</v>
@@ -5214,7 +5226,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5295,7 +5307,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR21">
         <v>1.86</v>
@@ -5420,7 +5432,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5501,7 +5513,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ22">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5707,7 +5719,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ23">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>2.04</v>
@@ -5832,7 +5844,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5910,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>1.86</v>
@@ -6038,7 +6050,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6116,10 +6128,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6244,7 +6256,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6322,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6450,7 +6462,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6531,7 +6543,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -6862,7 +6874,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7068,7 +7080,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7274,7 +7286,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7352,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7892,7 +7904,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -7970,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8098,7 +8110,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8179,7 +8191,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.62</v>
@@ -8304,7 +8316,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8510,7 +8522,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8716,7 +8728,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -8794,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -9000,7 +9012,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ39">
         <v>0.86</v>
@@ -9128,7 +9140,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9209,7 +9221,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ40">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9334,7 +9346,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9412,7 +9424,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1.86</v>
@@ -9540,7 +9552,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9621,7 +9633,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.18</v>
@@ -9952,7 +9964,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10033,7 +10045,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10158,7 +10170,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10236,7 +10248,7 @@
         <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ45">
         <v>1.43</v>
@@ -10364,7 +10376,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10442,10 +10454,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10570,7 +10582,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10648,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ47">
         <v>1.88</v>
@@ -10776,7 +10788,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11394,7 +11406,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11475,7 +11487,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR51">
         <v>1.65</v>
@@ -11600,7 +11612,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -11678,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -11884,7 +11896,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
         <v>0.57</v>
@@ -12012,7 +12024,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12299,7 +12311,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ55">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12424,7 +12436,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12502,10 +12514,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR56">
         <v>1.26</v>
@@ -12630,7 +12642,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -12836,7 +12848,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -12917,7 +12929,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>1.23</v>
@@ -13120,7 +13132,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0.57</v>
@@ -13326,7 +13338,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>1.14</v>
@@ -13454,7 +13466,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13535,7 +13547,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13738,10 +13750,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -13866,7 +13878,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -13944,7 +13956,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ63">
         <v>2.29</v>
@@ -14153,7 +14165,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR64">
         <v>1.93</v>
@@ -14278,7 +14290,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14356,10 +14368,10 @@
         <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.19</v>
@@ -14484,7 +14496,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14562,10 +14574,10 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ66">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14690,7 +14702,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14896,7 +14908,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -14974,7 +14986,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15514,7 +15526,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15798,10 +15810,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16004,7 +16016,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.86</v>
@@ -16213,7 +16225,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR74">
         <v>1.42</v>
@@ -16338,7 +16350,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16416,7 +16428,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16544,7 +16556,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16750,7 +16762,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16828,7 +16840,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ77">
         <v>1.14</v>
@@ -16956,7 +16968,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17162,7 +17174,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17243,7 +17255,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR79">
         <v>0.98</v>
@@ -17449,7 +17461,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR80">
         <v>1.44</v>
@@ -17574,7 +17586,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18064,7 +18076,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18270,7 +18282,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ84">
         <v>0.57</v>
@@ -18398,7 +18410,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18479,7 +18491,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ85">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.86</v>
@@ -18604,7 +18616,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18682,10 +18694,10 @@
         <v>3</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -18891,7 +18903,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ87">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.6</v>
@@ -19016,7 +19028,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19094,7 +19106,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ88">
         <v>1.88</v>
@@ -19222,7 +19234,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19428,7 +19440,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19506,7 +19518,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.5</v>
@@ -19715,7 +19727,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ91">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -19840,7 +19852,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -19921,7 +19933,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20046,7 +20058,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20124,7 +20136,7 @@
         <v>2</v>
       </c>
       <c r="AP93">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ93">
         <v>1.86</v>
@@ -20252,7 +20264,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20458,7 +20470,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20870,7 +20882,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21157,7 +21169,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ98">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>1.62</v>
@@ -21282,7 +21294,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21360,7 +21372,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ99">
         <v>1.86</v>
@@ -21488,7 +21500,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21694,7 +21706,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21772,7 +21784,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -21978,10 +21990,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.18</v>
@@ -22106,7 +22118,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22184,10 +22196,10 @@
         <v>2.17</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR103">
         <v>1.49</v>
@@ -22312,7 +22324,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22390,10 +22402,10 @@
         <v>2.4</v>
       </c>
       <c r="AP104">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ104">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22596,10 +22608,10 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR105">
         <v>1.61</v>
@@ -22724,7 +22736,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22930,7 +22942,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23136,7 +23148,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23342,7 +23354,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -24166,7 +24178,7 @@
         <v>137</v>
       </c>
       <c r="P113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24323,6 +24335,1448 @@
       </c>
       <c r="BP113">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7484652</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45625.58333333334</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>86</v>
+      </c>
+      <c r="P114" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>2.25</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>1.34</v>
+      </c>
+      <c r="U114">
+        <v>3.05</v>
+      </c>
+      <c r="V114">
+        <v>2.6</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>6</v>
+      </c>
+      <c r="Y114">
+        <v>1.1</v>
+      </c>
+      <c r="Z114">
+        <v>6</v>
+      </c>
+      <c r="AA114">
+        <v>4.1</v>
+      </c>
+      <c r="AB114">
+        <v>1.5</v>
+      </c>
+      <c r="AC114">
+        <v>1.01</v>
+      </c>
+      <c r="AD114">
+        <v>11</v>
+      </c>
+      <c r="AE114">
+        <v>1.25</v>
+      </c>
+      <c r="AF114">
+        <v>3.75</v>
+      </c>
+      <c r="AG114">
+        <v>1.85</v>
+      </c>
+      <c r="AH114">
+        <v>1.95</v>
+      </c>
+      <c r="AI114">
+        <v>2</v>
+      </c>
+      <c r="AJ114">
+        <v>1.73</v>
+      </c>
+      <c r="AK114">
+        <v>2.45</v>
+      </c>
+      <c r="AL114">
+        <v>1.17</v>
+      </c>
+      <c r="AM114">
+        <v>1.09</v>
+      </c>
+      <c r="AN114">
+        <v>0.29</v>
+      </c>
+      <c r="AO114">
+        <v>2.5</v>
+      </c>
+      <c r="AP114">
+        <v>0.38</v>
+      </c>
+      <c r="AQ114">
+        <v>2.29</v>
+      </c>
+      <c r="AR114">
+        <v>1.14</v>
+      </c>
+      <c r="AS114">
+        <v>1.63</v>
+      </c>
+      <c r="AT114">
+        <v>2.77</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>5</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>8</v>
+      </c>
+      <c r="AY114">
+        <v>9</v>
+      </c>
+      <c r="AZ114">
+        <v>17</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>6</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7484649</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45625.58333333334</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>103</v>
+      </c>
+      <c r="P115" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q115">
+        <v>2.88</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>3.6</v>
+      </c>
+      <c r="T115">
+        <v>1.37</v>
+      </c>
+      <c r="U115">
+        <v>2.85</v>
+      </c>
+      <c r="V115">
+        <v>2.7</v>
+      </c>
+      <c r="W115">
+        <v>1.41</v>
+      </c>
+      <c r="X115">
+        <v>6.45</v>
+      </c>
+      <c r="Y115">
+        <v>1.09</v>
+      </c>
+      <c r="Z115">
+        <v>2.2</v>
+      </c>
+      <c r="AA115">
+        <v>3.2</v>
+      </c>
+      <c r="AB115">
+        <v>3.2</v>
+      </c>
+      <c r="AC115">
+        <v>1.03</v>
+      </c>
+      <c r="AD115">
+        <v>9</v>
+      </c>
+      <c r="AE115">
+        <v>1.28</v>
+      </c>
+      <c r="AF115">
+        <v>3.5</v>
+      </c>
+      <c r="AG115">
+        <v>2</v>
+      </c>
+      <c r="AH115">
+        <v>1.8</v>
+      </c>
+      <c r="AI115">
+        <v>1.8</v>
+      </c>
+      <c r="AJ115">
+        <v>1.91</v>
+      </c>
+      <c r="AK115">
+        <v>1.5</v>
+      </c>
+      <c r="AL115">
+        <v>1.25</v>
+      </c>
+      <c r="AM115">
+        <v>1.47</v>
+      </c>
+      <c r="AN115">
+        <v>0.43</v>
+      </c>
+      <c r="AO115">
+        <v>1.71</v>
+      </c>
+      <c r="AP115">
+        <v>0.75</v>
+      </c>
+      <c r="AQ115">
+        <v>1.5</v>
+      </c>
+      <c r="AR115">
+        <v>1.28</v>
+      </c>
+      <c r="AS115">
+        <v>1.2</v>
+      </c>
+      <c r="AT115">
+        <v>2.48</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>7</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>13</v>
+      </c>
+      <c r="AZ115">
+        <v>7</v>
+      </c>
+      <c r="BA115">
+        <v>3</v>
+      </c>
+      <c r="BB115">
+        <v>3</v>
+      </c>
+      <c r="BC115">
+        <v>6</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>2.38</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7484650</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45625.58333333334</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>2</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116" t="s">
+        <v>157</v>
+      </c>
+      <c r="P116" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q116">
+        <v>3.5</v>
+      </c>
+      <c r="R116">
+        <v>2.25</v>
+      </c>
+      <c r="S116">
+        <v>2.63</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3.05</v>
+      </c>
+      <c r="V116">
+        <v>2.5</v>
+      </c>
+      <c r="W116">
+        <v>1.47</v>
+      </c>
+      <c r="X116">
+        <v>5.95</v>
+      </c>
+      <c r="Y116">
+        <v>1.1</v>
+      </c>
+      <c r="Z116">
+        <v>3.1</v>
+      </c>
+      <c r="AA116">
+        <v>3.6</v>
+      </c>
+      <c r="AB116">
+        <v>2.1</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>11</v>
+      </c>
+      <c r="AE116">
+        <v>1.22</v>
+      </c>
+      <c r="AF116">
+        <v>4</v>
+      </c>
+      <c r="AG116">
+        <v>1.67</v>
+      </c>
+      <c r="AH116">
+        <v>2.15</v>
+      </c>
+      <c r="AI116">
+        <v>1.62</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>1.66</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>1.36</v>
+      </c>
+      <c r="AN116">
+        <v>0.71</v>
+      </c>
+      <c r="AO116">
+        <v>1.14</v>
+      </c>
+      <c r="AP116">
+        <v>0.63</v>
+      </c>
+      <c r="AQ116">
+        <v>1.38</v>
+      </c>
+      <c r="AR116">
+        <v>1.11</v>
+      </c>
+      <c r="AS116">
+        <v>1.39</v>
+      </c>
+      <c r="AT116">
+        <v>2.5</v>
+      </c>
+      <c r="AU116">
+        <v>4</v>
+      </c>
+      <c r="AV116">
+        <v>8</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>18</v>
+      </c>
+      <c r="AZ116">
+        <v>18</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>9</v>
+      </c>
+      <c r="BC116">
+        <v>14</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>2.1</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7484653</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45625.58333333334</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>82</v>
+      </c>
+      <c r="H117" t="s">
+        <v>79</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>158</v>
+      </c>
+      <c r="P117" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q117">
+        <v>1.91</v>
+      </c>
+      <c r="R117">
+        <v>2.6</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>1.24</v>
+      </c>
+      <c r="U117">
+        <v>3.7</v>
+      </c>
+      <c r="V117">
+        <v>2.24</v>
+      </c>
+      <c r="W117">
+        <v>1.59</v>
+      </c>
+      <c r="X117">
+        <v>4.95</v>
+      </c>
+      <c r="Y117">
+        <v>1.14</v>
+      </c>
+      <c r="Z117">
+        <v>1.45</v>
+      </c>
+      <c r="AA117">
+        <v>5.25</v>
+      </c>
+      <c r="AB117">
+        <v>5.25</v>
+      </c>
+      <c r="AC117">
+        <v>1.01</v>
+      </c>
+      <c r="AD117">
+        <v>13</v>
+      </c>
+      <c r="AE117">
+        <v>1.12</v>
+      </c>
+      <c r="AF117">
+        <v>4.5</v>
+      </c>
+      <c r="AG117">
+        <v>1.44</v>
+      </c>
+      <c r="AH117">
+        <v>2.63</v>
+      </c>
+      <c r="AI117">
+        <v>1.62</v>
+      </c>
+      <c r="AJ117">
+        <v>2.2</v>
+      </c>
+      <c r="AK117">
+        <v>1.09</v>
+      </c>
+      <c r="AL117">
+        <v>1.15</v>
+      </c>
+      <c r="AM117">
+        <v>2.6</v>
+      </c>
+      <c r="AN117">
+        <v>0.67</v>
+      </c>
+      <c r="AO117">
+        <v>0.57</v>
+      </c>
+      <c r="AP117">
+        <v>1</v>
+      </c>
+      <c r="AQ117">
+        <v>0.5</v>
+      </c>
+      <c r="AR117">
+        <v>1.34</v>
+      </c>
+      <c r="AS117">
+        <v>1.37</v>
+      </c>
+      <c r="AT117">
+        <v>2.71</v>
+      </c>
+      <c r="AU117">
+        <v>7</v>
+      </c>
+      <c r="AV117">
+        <v>6</v>
+      </c>
+      <c r="AW117">
+        <v>3</v>
+      </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>12</v>
+      </c>
+      <c r="AZ117">
+        <v>13</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>2</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7484654</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45625.6875</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>85</v>
+      </c>
+      <c r="H118" t="s">
+        <v>81</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>86</v>
+      </c>
+      <c r="P118" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>2.5</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.05</v>
+      </c>
+      <c r="V118">
+        <v>2.5</v>
+      </c>
+      <c r="W118">
+        <v>1.47</v>
+      </c>
+      <c r="X118">
+        <v>5.95</v>
+      </c>
+      <c r="Y118">
+        <v>1.1</v>
+      </c>
+      <c r="Z118">
+        <v>3.5</v>
+      </c>
+      <c r="AA118">
+        <v>3.9</v>
+      </c>
+      <c r="AB118">
+        <v>1.9</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>11</v>
+      </c>
+      <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>4</v>
+      </c>
+      <c r="AG118">
+        <v>1.75</v>
+      </c>
+      <c r="AH118">
+        <v>2.05</v>
+      </c>
+      <c r="AI118">
+        <v>1.73</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>1.95</v>
+      </c>
+      <c r="AL118">
+        <v>1.2</v>
+      </c>
+      <c r="AM118">
+        <v>1.2</v>
+      </c>
+      <c r="AN118">
+        <v>1.71</v>
+      </c>
+      <c r="AO118">
+        <v>2.29</v>
+      </c>
+      <c r="AP118">
+        <v>1.5</v>
+      </c>
+      <c r="AQ118">
+        <v>2.38</v>
+      </c>
+      <c r="AR118">
+        <v>1.23</v>
+      </c>
+      <c r="AS118">
+        <v>1.45</v>
+      </c>
+      <c r="AT118">
+        <v>2.68</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>12</v>
+      </c>
+      <c r="AW118">
+        <v>1</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>4</v>
+      </c>
+      <c r="AZ118">
+        <v>16</v>
+      </c>
+      <c r="BA118">
+        <v>2</v>
+      </c>
+      <c r="BB118">
+        <v>4</v>
+      </c>
+      <c r="BC118">
+        <v>6</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7484648</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45626.4375</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" t="s">
+        <v>78</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>152</v>
+      </c>
+      <c r="P119" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q119">
+        <v>2.63</v>
+      </c>
+      <c r="R119">
+        <v>2.38</v>
+      </c>
+      <c r="S119">
+        <v>3.2</v>
+      </c>
+      <c r="T119">
+        <v>1.28</v>
+      </c>
+      <c r="U119">
+        <v>3.4</v>
+      </c>
+      <c r="V119">
+        <v>2.31</v>
+      </c>
+      <c r="W119">
+        <v>1.56</v>
+      </c>
+      <c r="X119">
+        <v>5</v>
+      </c>
+      <c r="Y119">
+        <v>1.14</v>
+      </c>
+      <c r="Z119">
+        <v>2.15</v>
+      </c>
+      <c r="AA119">
+        <v>3.9</v>
+      </c>
+      <c r="AB119">
+        <v>2.75</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>13</v>
+      </c>
+      <c r="AE119">
+        <v>1.17</v>
+      </c>
+      <c r="AF119">
+        <v>4.75</v>
+      </c>
+      <c r="AG119">
+        <v>1.5</v>
+      </c>
+      <c r="AH119">
+        <v>2.5</v>
+      </c>
+      <c r="AI119">
+        <v>1.5</v>
+      </c>
+      <c r="AJ119">
+        <v>2.5</v>
+      </c>
+      <c r="AK119">
+        <v>1.36</v>
+      </c>
+      <c r="AL119">
+        <v>1.2</v>
+      </c>
+      <c r="AM119">
+        <v>1.72</v>
+      </c>
+      <c r="AN119">
+        <v>0.86</v>
+      </c>
+      <c r="AO119">
+        <v>1.33</v>
+      </c>
+      <c r="AP119">
+        <v>0.75</v>
+      </c>
+      <c r="AQ119">
+        <v>1.57</v>
+      </c>
+      <c r="AR119">
+        <v>1.62</v>
+      </c>
+      <c r="AS119">
+        <v>1.38</v>
+      </c>
+      <c r="AT119">
+        <v>3</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>8</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>14</v>
+      </c>
+      <c r="BA119">
+        <v>6</v>
+      </c>
+      <c r="BB119">
+        <v>4</v>
+      </c>
+      <c r="BC119">
+        <v>10</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7484655</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45626.66666666666</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>86</v>
+      </c>
+      <c r="P120" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q120">
+        <v>2.6</v>
+      </c>
+      <c r="R120">
+        <v>2.2</v>
+      </c>
+      <c r="S120">
+        <v>3.75</v>
+      </c>
+      <c r="T120">
+        <v>1.35</v>
+      </c>
+      <c r="U120">
+        <v>2.95</v>
+      </c>
+      <c r="V120">
+        <v>2.6</v>
+      </c>
+      <c r="W120">
+        <v>1.44</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>1.1</v>
+      </c>
+      <c r="Z120">
+        <v>1.91</v>
+      </c>
+      <c r="AA120">
+        <v>3.45</v>
+      </c>
+      <c r="AB120">
+        <v>3.25</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>10</v>
+      </c>
+      <c r="AE120">
+        <v>1.25</v>
+      </c>
+      <c r="AF120">
+        <v>3.75</v>
+      </c>
+      <c r="AG120">
+        <v>1.75</v>
+      </c>
+      <c r="AH120">
+        <v>1.95</v>
+      </c>
+      <c r="AI120">
+        <v>1.67</v>
+      </c>
+      <c r="AJ120">
+        <v>2.1</v>
+      </c>
+      <c r="AK120">
+        <v>1.3</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>1.78</v>
+      </c>
+      <c r="AN120">
+        <v>1.33</v>
+      </c>
+      <c r="AO120">
+        <v>1</v>
+      </c>
+      <c r="AP120">
+        <v>1.29</v>
+      </c>
+      <c r="AQ120">
+        <v>1</v>
+      </c>
+      <c r="AR120">
+        <v>1.33</v>
+      </c>
+      <c r="AS120">
+        <v>1.29</v>
+      </c>
+      <c r="AT120">
+        <v>2.62</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>8</v>
+      </c>
+      <c r="BC120">
+        <v>10</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>2.2</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>['46', '51', '68']</t>
+  </si>
+  <si>
+    <t>['21', '31', '53', '82']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1315,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1518,7 +1521,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1724,7 +1727,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -1930,7 +1933,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2136,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.05</v>
@@ -2217,7 +2220,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ6">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3166,7 +3169,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3372,7 +3375,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3990,7 +3993,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4068,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4196,7 +4199,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4402,7 +4405,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4608,7 +4611,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -4814,7 +4817,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5020,7 +5023,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5226,7 +5229,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5432,7 +5435,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5844,7 +5847,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5925,7 +5928,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>1.2</v>
@@ -6050,7 +6053,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6256,7 +6259,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6462,7 +6465,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6540,7 +6543,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>2.29</v>
@@ -6874,7 +6877,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7080,7 +7083,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7286,7 +7289,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7904,7 +7907,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8110,7 +8113,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8316,7 +8319,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8522,7 +8525,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8728,7 +8731,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9140,7 +9143,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9346,7 +9349,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9427,7 +9430,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR41">
         <v>0.9</v>
@@ -9552,7 +9555,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9964,7 +9967,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10042,7 +10045,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10170,7 +10173,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10376,7 +10379,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10582,7 +10585,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10788,7 +10791,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10869,7 +10872,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ48">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR48">
         <v>1.3</v>
@@ -11406,7 +11409,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11612,7 +11615,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12024,7 +12027,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12102,7 +12105,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>2.29</v>
@@ -12436,7 +12439,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12642,7 +12645,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -12848,7 +12851,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13466,7 +13469,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13878,7 +13881,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14290,7 +14293,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14496,7 +14499,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14702,7 +14705,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14780,7 +14783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -14908,7 +14911,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15195,7 +15198,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ69">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15526,7 +15529,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16350,7 +16353,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16556,7 +16559,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16762,7 +16765,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16968,7 +16971,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17174,7 +17177,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17586,7 +17589,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17873,7 +17876,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ82">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18410,7 +18413,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18616,7 +18619,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18900,7 +18903,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19028,7 +19031,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19234,7 +19237,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19440,7 +19443,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19852,7 +19855,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20058,7 +20061,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20264,7 +20267,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20470,7 +20473,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20882,7 +20885,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21294,7 +21297,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21375,7 +21378,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ99">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
         <v>1.1</v>
@@ -21500,7 +21503,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21578,7 +21581,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>1.88</v>
@@ -21706,7 +21709,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22118,7 +22121,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22324,7 +22327,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22736,7 +22739,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22942,7 +22945,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23148,7 +23151,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23354,7 +23357,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -24178,7 +24181,7 @@
         <v>137</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24796,7 +24799,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25414,7 +25417,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -25719,16 +25722,16 @@
         <v>3</v>
       </c>
       <c r="AW120">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY120">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -25776,6 +25779,212 @@
         <v>0</v>
       </c>
       <c r="BP120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7484651</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45627.27083333334</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>83</v>
+      </c>
+      <c r="H121" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>159</v>
+      </c>
+      <c r="P121" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q121">
+        <v>2.88</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>3.25</v>
+      </c>
+      <c r="T121">
+        <v>1.33</v>
+      </c>
+      <c r="U121">
+        <v>3.25</v>
+      </c>
+      <c r="V121">
+        <v>2.63</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>6</v>
+      </c>
+      <c r="Y121">
+        <v>1.11</v>
+      </c>
+      <c r="Z121">
+        <v>2.25</v>
+      </c>
+      <c r="AA121">
+        <v>3.5</v>
+      </c>
+      <c r="AB121">
+        <v>2.88</v>
+      </c>
+      <c r="AC121">
+        <v>1.01</v>
+      </c>
+      <c r="AD121">
+        <v>11</v>
+      </c>
+      <c r="AE121">
+        <v>1.22</v>
+      </c>
+      <c r="AF121">
+        <v>4</v>
+      </c>
+      <c r="AG121">
+        <v>1.75</v>
+      </c>
+      <c r="AH121">
+        <v>2.05</v>
+      </c>
+      <c r="AI121">
+        <v>1.62</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.4</v>
+      </c>
+      <c r="AL121">
+        <v>1.22</v>
+      </c>
+      <c r="AM121">
+        <v>1.62</v>
+      </c>
+      <c r="AN121">
+        <v>1.86</v>
+      </c>
+      <c r="AO121">
+        <v>1.86</v>
+      </c>
+      <c r="AP121">
+        <v>2</v>
+      </c>
+      <c r="AQ121">
+        <v>1.63</v>
+      </c>
+      <c r="AR121">
+        <v>1.76</v>
+      </c>
+      <c r="AS121">
+        <v>1.13</v>
+      </c>
+      <c r="AT121">
+        <v>2.89</v>
+      </c>
+      <c r="AU121">
+        <v>0</v>
+      </c>
+      <c r="AV121">
+        <v>6</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>4</v>
+      </c>
+      <c r="AY121">
+        <v>7</v>
+      </c>
+      <c r="AZ121">
+        <v>10</v>
+      </c>
+      <c r="BA121">
+        <v>5</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>2.25</v>
+      </c>
+      <c r="BL121">
+        <v>0</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -25725,13 +25725,13 @@
         <v>3</v>
       </c>
       <c r="AX120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY120">
         <v>7</v>
       </c>
       <c r="AZ120">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -25922,19 +25922,19 @@
         <v>2.89</v>
       </c>
       <c r="AU121">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV121">
         <v>6</v>
       </c>
       <c r="AW121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX121">
         <v>4</v>
       </c>
       <c r="AY121">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ121">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -25922,22 +25922,22 @@
         <v>2.89</v>
       </c>
       <c r="AU121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV121">
         <v>6</v>
       </c>
       <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
         <v>5</v>
       </c>
-      <c r="AX121">
-        <v>4</v>
-      </c>
       <c r="AY121">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ121">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA121">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,18 @@
     <t>['21', '31', '53', '82']</t>
   </si>
   <si>
+    <t>['32', '57']</t>
+  </si>
+  <si>
+    <t>['34', '55', '71']</t>
+  </si>
+  <si>
+    <t>['64', '66', '70']</t>
+  </si>
+  <si>
+    <t>['38', '78', '80']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -695,6 +707,18 @@
   </si>
   <si>
     <t>['12', '59', '70']</t>
+  </si>
+  <si>
+    <t>['32', '41', '89']</t>
+  </si>
+  <si>
+    <t>['8', '54']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['19', '51', '63', '66']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1339,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1521,7 +1545,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1727,7 +1751,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -1933,7 +1957,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2139,7 +2163,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.05</v>
@@ -3041,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3169,7 +3193,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3250,7 +3274,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ11">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3399,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3453,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3659,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3865,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3993,7 +4017,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4074,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4199,7 +4223,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4405,7 +4429,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4483,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4611,7 +4635,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -4817,7 +4841,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5023,7 +5047,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5229,7 +5253,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5435,7 +5459,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5847,7 +5871,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6053,7 +6077,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6131,7 +6155,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
         <v>1.57</v>
@@ -6259,7 +6283,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6465,7 +6489,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6546,7 +6570,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -6749,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.88</v>
@@ -6877,7 +6901,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -6955,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7083,7 +7107,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7164,7 +7188,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ30">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.86</v>
@@ -7289,7 +7313,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7367,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>0.93</v>
@@ -7573,10 +7597,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7782,7 +7806,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ33">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -7907,7 +7931,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8113,7 +8137,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8319,7 +8343,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8397,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>1.43</v>
@@ -8525,7 +8549,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8606,7 +8630,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -8731,7 +8755,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -8809,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -9143,7 +9167,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9349,7 +9373,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9555,7 +9579,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9633,7 +9657,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9839,10 +9863,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -9967,7 +9991,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10173,7 +10197,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10379,7 +10403,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10457,7 +10481,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -10585,7 +10609,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10791,7 +10815,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11078,7 +11102,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR49">
         <v>1.42</v>
@@ -11409,7 +11433,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11487,7 +11511,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>2.38</v>
@@ -11615,7 +11639,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -11902,7 +11926,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>0.98</v>
@@ -12027,7 +12051,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12439,7 +12463,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12645,7 +12669,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -12723,10 +12747,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -12851,7 +12875,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -12929,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.38</v>
@@ -13135,10 +13159,10 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.05</v>
@@ -13344,7 +13368,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>1.45</v>
@@ -13469,7 +13493,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13753,10 +13777,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -13881,7 +13905,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14293,7 +14317,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14499,7 +14523,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14580,7 +14604,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ66">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14705,7 +14729,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14911,7 +14935,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -14989,7 +15013,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15195,7 +15219,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ69">
         <v>1.63</v>
@@ -15404,7 +15428,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
         <v>1.74</v>
@@ -15529,7 +15553,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15607,7 +15631,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.88</v>
@@ -16019,10 +16043,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR73">
         <v>1.39</v>
@@ -16353,7 +16377,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16559,7 +16583,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16765,7 +16789,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16846,7 +16870,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.02</v>
@@ -16971,7 +16995,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17177,7 +17201,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17255,7 +17279,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.38</v>
@@ -17589,7 +17613,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17667,10 +17691,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR81">
         <v>1.61</v>
@@ -17873,7 +17897,7 @@
         <v>2.4</v>
       </c>
       <c r="AP82">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1.63</v>
@@ -18079,10 +18103,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.17</v>
@@ -18288,7 +18312,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18413,7 +18437,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18619,7 +18643,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18700,7 +18724,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ86">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19031,7 +19055,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19237,7 +19261,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19318,7 +19342,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ89">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19443,7 +19467,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19521,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
         <v>1.5</v>
@@ -19855,7 +19879,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20061,7 +20085,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20142,7 +20166,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ93">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20267,7 +20291,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20473,7 +20497,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20760,7 +20784,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -20885,7 +20909,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -20963,7 +20987,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>2.29</v>
@@ -21169,7 +21193,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21297,7 +21321,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21503,7 +21527,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21709,7 +21733,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21790,7 +21814,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -21993,7 +22017,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22121,7 +22145,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22327,7 +22351,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22408,7 +22432,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ104">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22739,7 +22763,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22820,7 +22844,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ106">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR106">
         <v>1.34</v>
@@ -22945,7 +22969,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23151,7 +23175,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23229,7 +23253,7 @@
         <v>2.17</v>
       </c>
       <c r="AP108">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
         <v>2.29</v>
@@ -23357,7 +23381,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23641,7 +23665,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>1.43</v>
@@ -23847,7 +23871,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>0.86</v>
@@ -24056,7 +24080,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ112">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24181,7 +24205,7 @@
         <v>137</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24262,7 +24286,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ113">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24468,7 +24492,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ114">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24799,7 +24823,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25083,7 +25107,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25289,7 +25313,7 @@
         <v>2.29</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118">
         <v>2.38</v>
@@ -25417,7 +25441,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -25704,7 +25728,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR120">
         <v>1.33</v>
@@ -25985,6 +26009,1036 @@
         <v>0</v>
       </c>
       <c r="BP121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7484656</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45632.58333333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>86</v>
+      </c>
+      <c r="P122" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>3.4</v>
+      </c>
+      <c r="T122">
+        <v>1.3</v>
+      </c>
+      <c r="U122">
+        <v>3.25</v>
+      </c>
+      <c r="V122">
+        <v>2.39</v>
+      </c>
+      <c r="W122">
+        <v>1.52</v>
+      </c>
+      <c r="X122">
+        <v>5.45</v>
+      </c>
+      <c r="Y122">
+        <v>1.12</v>
+      </c>
+      <c r="Z122">
+        <v>2.4</v>
+      </c>
+      <c r="AA122">
+        <v>3.3</v>
+      </c>
+      <c r="AB122">
+        <v>2.75</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>13</v>
+      </c>
+      <c r="AE122">
+        <v>1.18</v>
+      </c>
+      <c r="AF122">
+        <v>4.5</v>
+      </c>
+      <c r="AG122">
+        <v>2</v>
+      </c>
+      <c r="AH122">
+        <v>1.8</v>
+      </c>
+      <c r="AI122">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.91</v>
+      </c>
+      <c r="AK122">
+        <v>1.33</v>
+      </c>
+      <c r="AL122">
+        <v>1.2</v>
+      </c>
+      <c r="AM122">
+        <v>1.78</v>
+      </c>
+      <c r="AN122">
+        <v>1.88</v>
+      </c>
+      <c r="AO122">
+        <v>1.14</v>
+      </c>
+      <c r="AP122">
+        <v>1.67</v>
+      </c>
+      <c r="AQ122">
+        <v>1.38</v>
+      </c>
+      <c r="AR122">
+        <v>1.65</v>
+      </c>
+      <c r="AS122">
+        <v>1.45</v>
+      </c>
+      <c r="AT122">
+        <v>3.1</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>7</v>
+      </c>
+      <c r="AY122">
+        <v>12</v>
+      </c>
+      <c r="AZ122">
+        <v>14</v>
+      </c>
+      <c r="BA122">
+        <v>1</v>
+      </c>
+      <c r="BB122">
+        <v>3</v>
+      </c>
+      <c r="BC122">
+        <v>4</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>2.1</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7484661</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45632.58333333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" t="s">
+        <v>72</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>160</v>
+      </c>
+      <c r="P123" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q123">
+        <v>1.67</v>
+      </c>
+      <c r="R123">
+        <v>2.6</v>
+      </c>
+      <c r="S123">
+        <v>7.5</v>
+      </c>
+      <c r="T123">
+        <v>1.24</v>
+      </c>
+      <c r="U123">
+        <v>3.7</v>
+      </c>
+      <c r="V123">
+        <v>2.29</v>
+      </c>
+      <c r="W123">
+        <v>1.56</v>
+      </c>
+      <c r="X123">
+        <v>4.95</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>1.29</v>
+      </c>
+      <c r="AA123">
+        <v>5.5</v>
+      </c>
+      <c r="AB123">
+        <v>8.5</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>17</v>
+      </c>
+      <c r="AE123">
+        <v>1.17</v>
+      </c>
+      <c r="AF123">
+        <v>4.75</v>
+      </c>
+      <c r="AG123">
+        <v>1.53</v>
+      </c>
+      <c r="AH123">
+        <v>2.38</v>
+      </c>
+      <c r="AI123">
+        <v>2</v>
+      </c>
+      <c r="AJ123">
+        <v>1.73</v>
+      </c>
+      <c r="AK123">
+        <v>1.03</v>
+      </c>
+      <c r="AL123">
+        <v>1.09</v>
+      </c>
+      <c r="AM123">
+        <v>3.6</v>
+      </c>
+      <c r="AN123">
+        <v>1.86</v>
+      </c>
+      <c r="AO123">
+        <v>0.57</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+      <c r="AQ123">
+        <v>0.5</v>
+      </c>
+      <c r="AR123">
+        <v>1.4</v>
+      </c>
+      <c r="AS123">
+        <v>1.06</v>
+      </c>
+      <c r="AT123">
+        <v>2.46</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>1</v>
+      </c>
+      <c r="AY123">
+        <v>11</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>9</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>14</v>
+      </c>
+      <c r="BD123">
+        <v>1.14</v>
+      </c>
+      <c r="BE123">
+        <v>10.25</v>
+      </c>
+      <c r="BF123">
+        <v>7.9</v>
+      </c>
+      <c r="BG123">
+        <v>1.26</v>
+      </c>
+      <c r="BH123">
+        <v>3.08</v>
+      </c>
+      <c r="BI123">
+        <v>1.51</v>
+      </c>
+      <c r="BJ123">
+        <v>2.26</v>
+      </c>
+      <c r="BK123">
+        <v>1.93</v>
+      </c>
+      <c r="BL123">
+        <v>1.78</v>
+      </c>
+      <c r="BM123">
+        <v>2.46</v>
+      </c>
+      <c r="BN123">
+        <v>1.43</v>
+      </c>
+      <c r="BO123">
+        <v>3.34</v>
+      </c>
+      <c r="BP123">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7484662</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45632.58333333334</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>82</v>
+      </c>
+      <c r="H124" t="s">
+        <v>77</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>161</v>
+      </c>
+      <c r="P124" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q124">
+        <v>2.38</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>2.95</v>
+      </c>
+      <c r="W124">
+        <v>1.35</v>
+      </c>
+      <c r="X124">
+        <v>7.4</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>1.73</v>
+      </c>
+      <c r="AA124">
+        <v>3.4</v>
+      </c>
+      <c r="AB124">
+        <v>4.5</v>
+      </c>
+      <c r="AC124">
+        <v>1</v>
+      </c>
+      <c r="AD124">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE124">
+        <v>1.33</v>
+      </c>
+      <c r="AF124">
+        <v>3.2</v>
+      </c>
+      <c r="AG124">
+        <v>2.15</v>
+      </c>
+      <c r="AH124">
+        <v>1.67</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.73</v>
+      </c>
+      <c r="AK124">
+        <v>1.18</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>1.95</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>1.25</v>
+      </c>
+      <c r="AQ124">
+        <v>0.89</v>
+      </c>
+      <c r="AR124">
+        <v>1.35</v>
+      </c>
+      <c r="AS124">
+        <v>1.27</v>
+      </c>
+      <c r="AT124">
+        <v>2.62</v>
+      </c>
+      <c r="AU124">
+        <v>8</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>17</v>
+      </c>
+      <c r="AZ124">
+        <v>9</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>7</v>
+      </c>
+      <c r="BD124">
+        <v>1.47</v>
+      </c>
+      <c r="BE124">
+        <v>7.2</v>
+      </c>
+      <c r="BF124">
+        <v>3.5</v>
+      </c>
+      <c r="BG124">
+        <v>1.18</v>
+      </c>
+      <c r="BH124">
+        <v>3.72</v>
+      </c>
+      <c r="BI124">
+        <v>1.38</v>
+      </c>
+      <c r="BJ124">
+        <v>2.62</v>
+      </c>
+      <c r="BK124">
+        <v>2.1</v>
+      </c>
+      <c r="BL124">
+        <v>2.02</v>
+      </c>
+      <c r="BM124">
+        <v>2.12</v>
+      </c>
+      <c r="BN124">
+        <v>1.58</v>
+      </c>
+      <c r="BO124">
+        <v>2.78</v>
+      </c>
+      <c r="BP124">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7484663</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45632.58333333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>85</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>162</v>
+      </c>
+      <c r="P125" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>2.2</v>
+      </c>
+      <c r="S125">
+        <v>3.25</v>
+      </c>
+      <c r="T125">
+        <v>1.3</v>
+      </c>
+      <c r="U125">
+        <v>3.25</v>
+      </c>
+      <c r="V125">
+        <v>2.34</v>
+      </c>
+      <c r="W125">
+        <v>1.54</v>
+      </c>
+      <c r="X125">
+        <v>5</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>2.38</v>
+      </c>
+      <c r="AA125">
+        <v>3.3</v>
+      </c>
+      <c r="AB125">
+        <v>2.88</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>13</v>
+      </c>
+      <c r="AE125">
+        <v>1.18</v>
+      </c>
+      <c r="AF125">
+        <v>4.5</v>
+      </c>
+      <c r="AG125">
+        <v>1.8</v>
+      </c>
+      <c r="AH125">
+        <v>2</v>
+      </c>
+      <c r="AI125">
+        <v>1.67</v>
+      </c>
+      <c r="AJ125">
+        <v>2.1</v>
+      </c>
+      <c r="AK125">
+        <v>1.5</v>
+      </c>
+      <c r="AL125">
+        <v>1.22</v>
+      </c>
+      <c r="AM125">
+        <v>1.5</v>
+      </c>
+      <c r="AN125">
+        <v>1.5</v>
+      </c>
+      <c r="AO125">
+        <v>1.86</v>
+      </c>
+      <c r="AP125">
+        <v>1.67</v>
+      </c>
+      <c r="AQ125">
+        <v>1.63</v>
+      </c>
+      <c r="AR125">
+        <v>1.17</v>
+      </c>
+      <c r="AS125">
+        <v>1.44</v>
+      </c>
+      <c r="AT125">
+        <v>2.61</v>
+      </c>
+      <c r="AU125">
+        <v>8</v>
+      </c>
+      <c r="AV125">
+        <v>4</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>15</v>
+      </c>
+      <c r="AZ125">
+        <v>9</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
+        <v>3</v>
+      </c>
+      <c r="BD125">
+        <v>2.12</v>
+      </c>
+      <c r="BE125">
+        <v>6.65</v>
+      </c>
+      <c r="BF125">
+        <v>2.07</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>1.24</v>
+      </c>
+      <c r="BJ125">
+        <v>3.22</v>
+      </c>
+      <c r="BK125">
+        <v>1.83</v>
+      </c>
+      <c r="BL125">
+        <v>2.38</v>
+      </c>
+      <c r="BM125">
+        <v>1.81</v>
+      </c>
+      <c r="BN125">
+        <v>1.89</v>
+      </c>
+      <c r="BO125">
+        <v>2.26</v>
+      </c>
+      <c r="BP125">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7484660</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45632.6875</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>7</v>
+      </c>
+      <c r="O126" t="s">
+        <v>163</v>
+      </c>
+      <c r="P126" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>2.4</v>
+      </c>
+      <c r="T126">
+        <v>1.39</v>
+      </c>
+      <c r="U126">
+        <v>2.8</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>6.95</v>
+      </c>
+      <c r="Y126">
+        <v>1.07</v>
+      </c>
+      <c r="Z126">
+        <v>4.5</v>
+      </c>
+      <c r="AA126">
+        <v>3.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.75</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>9</v>
+      </c>
+      <c r="AE126">
+        <v>1.28</v>
+      </c>
+      <c r="AF126">
+        <v>3.4</v>
+      </c>
+      <c r="AG126">
+        <v>2.2</v>
+      </c>
+      <c r="AH126">
+        <v>1.65</v>
+      </c>
+      <c r="AI126">
+        <v>2.1</v>
+      </c>
+      <c r="AJ126">
+        <v>1.67</v>
+      </c>
+      <c r="AK126">
+        <v>2.1</v>
+      </c>
+      <c r="AL126">
+        <v>1.2</v>
+      </c>
+      <c r="AM126">
+        <v>1.15</v>
+      </c>
+      <c r="AN126">
+        <v>1.71</v>
+      </c>
+      <c r="AO126">
+        <v>2.29</v>
+      </c>
+      <c r="AP126">
+        <v>1.5</v>
+      </c>
+      <c r="AQ126">
+        <v>2.38</v>
+      </c>
+      <c r="AR126">
+        <v>1.27</v>
+      </c>
+      <c r="AS126">
+        <v>1.64</v>
+      </c>
+      <c r="AT126">
+        <v>2.91</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>7</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>11</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>2</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>7</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,12 @@
     <t>['38', '78', '80']</t>
   </si>
   <si>
+    <t>['53', '82']</t>
+  </si>
+  <si>
+    <t>['20', '53', '58']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -719,6 +725,12 @@
   </si>
   <si>
     <t>['19', '51', '63', '66']</t>
+  </si>
+  <si>
+    <t>['46', '62']</t>
+  </si>
+  <si>
+    <t>['29', '50']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1351,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1545,7 +1557,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1751,7 +1763,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -1957,7 +1969,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2163,7 +2175,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.05</v>
@@ -3193,7 +3205,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3271,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ11">
         <v>1.63</v>
@@ -3399,7 +3411,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3892,7 +3904,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4017,7 +4029,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4095,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ15">
         <v>1.38</v>
@@ -4223,7 +4235,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4304,7 +4316,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4429,7 +4441,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4635,7 +4647,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -4841,7 +4853,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5047,7 +5059,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5253,7 +5265,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5459,7 +5471,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5871,7 +5883,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6077,7 +6089,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6283,7 +6295,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6364,7 +6376,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6489,7 +6501,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6567,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ27">
         <v>2.38</v>
@@ -6901,7 +6913,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -6982,7 +6994,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7107,7 +7119,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7185,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7313,7 +7325,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7931,7 +7943,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8012,7 +8024,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8137,7 +8149,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8343,7 +8355,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8549,7 +8561,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8755,7 +8767,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9167,7 +9179,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9245,7 +9257,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ40">
         <v>2.38</v>
@@ -9373,7 +9385,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9579,7 +9591,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9660,7 +9672,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>1.18</v>
@@ -9991,7 +10003,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10069,7 +10081,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10197,7 +10209,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10403,7 +10415,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10609,7 +10621,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10815,7 +10827,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10893,7 +10905,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ48">
         <v>1.63</v>
@@ -11308,7 +11320,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.26</v>
@@ -11433,7 +11445,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11639,7 +11651,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12051,7 +12063,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12129,7 +12141,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ54">
         <v>2.29</v>
@@ -12338,7 +12350,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12463,7 +12475,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12669,7 +12681,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -12875,7 +12887,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13493,7 +13505,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13905,7 +13917,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14317,7 +14329,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14523,7 +14535,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14729,7 +14741,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14807,7 +14819,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -14935,7 +14947,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15016,7 +15028,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.14</v>
@@ -15553,7 +15565,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15840,7 +15852,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16377,7 +16389,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16458,7 +16470,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16583,7 +16595,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16789,7 +16801,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16995,7 +17007,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17073,7 +17085,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ78">
         <v>2.29</v>
@@ -17201,7 +17213,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17613,7 +17625,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18437,7 +18449,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18643,7 +18655,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18927,10 +18939,10 @@
         <v>2.2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR87">
         <v>1.6</v>
@@ -19055,7 +19067,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19261,7 +19273,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19467,7 +19479,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19548,7 +19560,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.43</v>
@@ -19879,7 +19891,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20085,7 +20097,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20291,7 +20303,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20497,7 +20509,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20575,7 +20587,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ95">
         <v>0.86</v>
@@ -20909,7 +20921,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21321,7 +21333,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21527,7 +21539,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21605,7 +21617,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ100">
         <v>1.88</v>
@@ -21733,7 +21745,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22020,7 +22032,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR102">
         <v>1.18</v>
@@ -22145,7 +22157,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22351,7 +22363,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22763,7 +22775,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22969,7 +22981,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23175,7 +23187,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23381,7 +23393,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23459,10 +23471,10 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -24205,7 +24217,7 @@
         <v>137</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24698,7 +24710,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -24823,7 +24835,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25441,7 +25453,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -25931,7 +25943,7 @@
         <v>1.86</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ121">
         <v>1.63</v>
@@ -26059,7 +26071,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26158,16 +26170,16 @@
         <v>5</v>
       </c>
       <c r="AW122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX122">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY122">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ122">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA122">
         <v>1</v>
@@ -26358,13 +26370,13 @@
         <v>2.46</v>
       </c>
       <c r="AU123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW123">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX123">
         <v>1</v>
@@ -26373,7 +26385,7 @@
         <v>11</v>
       </c>
       <c r="AZ123">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA123">
         <v>9</v>
@@ -26471,7 +26483,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26570,13 +26582,13 @@
         <v>6</v>
       </c>
       <c r="AW124">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY124">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ124">
         <v>9</v>
@@ -26677,7 +26689,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26773,19 +26785,19 @@
         <v>8</v>
       </c>
       <c r="AV125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX125">
         <v>4</v>
       </c>
       <c r="AY125">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ125">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA125">
         <v>0</v>
@@ -26883,7 +26895,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -26976,22 +26988,22 @@
         <v>2.91</v>
       </c>
       <c r="AU126">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV126">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ126">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA126">
         <v>2</v>
@@ -27040,6 +27052,418 @@
       </c>
       <c r="BP126">
         <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7484657</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45633.4375</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>79</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>164</v>
+      </c>
+      <c r="P127" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>2.3</v>
+      </c>
+      <c r="S127">
+        <v>2.4</v>
+      </c>
+      <c r="T127">
+        <v>1.31</v>
+      </c>
+      <c r="U127">
+        <v>3.2</v>
+      </c>
+      <c r="V127">
+        <v>2.4</v>
+      </c>
+      <c r="W127">
+        <v>1.51</v>
+      </c>
+      <c r="X127">
+        <v>5.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.12</v>
+      </c>
+      <c r="Z127">
+        <v>3.8</v>
+      </c>
+      <c r="AA127">
+        <v>3.7</v>
+      </c>
+      <c r="AB127">
+        <v>1.85</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>11</v>
+      </c>
+      <c r="AE127">
+        <v>1.2</v>
+      </c>
+      <c r="AF127">
+        <v>4.2</v>
+      </c>
+      <c r="AG127">
+        <v>1.67</v>
+      </c>
+      <c r="AH127">
+        <v>2.15</v>
+      </c>
+      <c r="AI127">
+        <v>1.62</v>
+      </c>
+      <c r="AJ127">
+        <v>2.2</v>
+      </c>
+      <c r="AK127">
+        <v>1.8</v>
+      </c>
+      <c r="AL127">
+        <v>1.2</v>
+      </c>
+      <c r="AM127">
+        <v>1.3</v>
+      </c>
+      <c r="AN127">
+        <v>0.57</v>
+      </c>
+      <c r="AO127">
+        <v>1.5</v>
+      </c>
+      <c r="AP127">
+        <v>0.63</v>
+      </c>
+      <c r="AQ127">
+        <v>1.44</v>
+      </c>
+      <c r="AR127">
+        <v>1.44</v>
+      </c>
+      <c r="AS127">
+        <v>1.16</v>
+      </c>
+      <c r="AT127">
+        <v>2.6</v>
+      </c>
+      <c r="AU127">
+        <v>3</v>
+      </c>
+      <c r="AV127">
+        <v>8</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>7</v>
+      </c>
+      <c r="AZ127">
+        <v>14</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>2.99</v>
+      </c>
+      <c r="BE127">
+        <v>6.85</v>
+      </c>
+      <c r="BF127">
+        <v>1.6</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>1.33</v>
+      </c>
+      <c r="BJ127">
+        <v>2.73</v>
+      </c>
+      <c r="BK127">
+        <v>2</v>
+      </c>
+      <c r="BL127">
+        <v>2.07</v>
+      </c>
+      <c r="BM127">
+        <v>2.06</v>
+      </c>
+      <c r="BN127">
+        <v>1.68</v>
+      </c>
+      <c r="BO127">
+        <v>2.62</v>
+      </c>
+      <c r="BP127">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7484658</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45633.4375</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>83</v>
+      </c>
+      <c r="H128" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128" t="s">
+        <v>165</v>
+      </c>
+      <c r="P128" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q128">
+        <v>2.75</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>3</v>
+      </c>
+      <c r="T128">
+        <v>1.23</v>
+      </c>
+      <c r="U128">
+        <v>3.75</v>
+      </c>
+      <c r="V128">
+        <v>2.11</v>
+      </c>
+      <c r="W128">
+        <v>1.67</v>
+      </c>
+      <c r="X128">
+        <v>4.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.17</v>
+      </c>
+      <c r="Z128">
+        <v>2.5</v>
+      </c>
+      <c r="AA128">
+        <v>3.5</v>
+      </c>
+      <c r="AB128">
+        <v>2.6</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>17</v>
+      </c>
+      <c r="AE128">
+        <v>1.07</v>
+      </c>
+      <c r="AF128">
+        <v>5.45</v>
+      </c>
+      <c r="AG128">
+        <v>1.5</v>
+      </c>
+      <c r="AH128">
+        <v>2.5</v>
+      </c>
+      <c r="AI128">
+        <v>1.4</v>
+      </c>
+      <c r="AJ128">
+        <v>2.75</v>
+      </c>
+      <c r="AK128">
+        <v>1.47</v>
+      </c>
+      <c r="AL128">
+        <v>1.2</v>
+      </c>
+      <c r="AM128">
+        <v>1.57</v>
+      </c>
+      <c r="AN128">
+        <v>2</v>
+      </c>
+      <c r="AO128">
+        <v>1.5</v>
+      </c>
+      <c r="AP128">
+        <v>2.11</v>
+      </c>
+      <c r="AQ128">
+        <v>1.33</v>
+      </c>
+      <c r="AR128">
+        <v>1.75</v>
+      </c>
+      <c r="AS128">
+        <v>1.61</v>
+      </c>
+      <c r="AT128">
+        <v>3.36</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>6</v>
+      </c>
+      <c r="AW128">
+        <v>3</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>9</v>
+      </c>
+      <c r="AZ128">
+        <v>13</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>8</v>
+      </c>
+      <c r="BD128">
+        <v>1.73</v>
+      </c>
+      <c r="BE128">
+        <v>6.7</v>
+      </c>
+      <c r="BF128">
+        <v>2.65</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>1.31</v>
+      </c>
+      <c r="BJ128">
+        <v>2.82</v>
+      </c>
+      <c r="BK128">
+        <v>2</v>
+      </c>
+      <c r="BL128">
+        <v>2.12</v>
+      </c>
+      <c r="BM128">
+        <v>2.02</v>
+      </c>
+      <c r="BN128">
+        <v>1.71</v>
+      </c>
+      <c r="BO128">
+        <v>2.56</v>
+      </c>
+      <c r="BP128">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,9 @@
     <t>['20', '53', '58']</t>
   </si>
   <si>
+    <t>['6', '13', '17', '21', '76']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -731,6 +734,9 @@
   </si>
   <si>
     <t>['29', '50']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1357,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1557,7 +1563,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1763,7 +1769,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -1969,7 +1975,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2175,7 +2181,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>2.05</v>
@@ -3205,7 +3211,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3411,7 +3417,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3698,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4029,7 +4035,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4235,7 +4241,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4313,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4441,7 +4447,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4647,7 +4653,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -4853,7 +4859,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -4934,7 +4940,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0.97</v>
@@ -5059,7 +5065,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5265,7 +5271,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5471,7 +5477,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5883,7 +5889,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6089,7 +6095,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6295,7 +6301,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6501,7 +6507,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6913,7 +6919,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7119,7 +7125,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7325,7 +7331,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7815,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -7943,7 +7949,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8149,7 +8155,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8355,7 +8361,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8561,7 +8567,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8767,7 +8773,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9054,7 +9060,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>0.82</v>
@@ -9179,7 +9185,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9385,7 +9391,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9591,7 +9597,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10003,7 +10009,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10209,7 +10215,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10415,7 +10421,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10621,7 +10627,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10827,7 +10833,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11445,7 +11451,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11651,7 +11657,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -11732,7 +11738,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -12063,7 +12069,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12475,7 +12481,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12681,7 +12687,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -12887,7 +12893,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13505,7 +13511,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13917,7 +13923,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14201,7 +14207,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1.57</v>
@@ -14329,7 +14335,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14535,7 +14541,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14741,7 +14747,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14822,7 +14828,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
         <v>1.77</v>
@@ -14947,7 +14953,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15437,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>0.89</v>
@@ -15565,7 +15571,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16389,7 +16395,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16595,7 +16601,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16801,7 +16807,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17007,7 +17013,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17213,7 +17219,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17625,7 +17631,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18449,7 +18455,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18527,7 +18533,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -18655,7 +18661,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19067,7 +19073,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19273,7 +19279,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19479,7 +19485,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19891,7 +19897,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20097,7 +20103,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20303,7 +20309,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20381,7 +20387,7 @@
         <v>1.8</v>
       </c>
       <c r="AP94">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.43</v>
@@ -20509,7 +20515,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20590,7 +20596,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ95">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -20921,7 +20927,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21333,7 +21339,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21539,7 +21545,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21745,7 +21751,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22157,7 +22163,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22363,7 +22369,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22775,7 +22781,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22981,7 +22987,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23059,7 +23065,7 @@
         <v>1.71</v>
       </c>
       <c r="AP107">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1.88</v>
@@ -23187,7 +23193,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23393,7 +23399,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23886,7 +23892,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24217,7 +24223,7 @@
         <v>137</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24835,7 +24841,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25453,7 +25459,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26071,7 +26077,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26483,7 +26489,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26689,7 +26695,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26895,7 +26901,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27101,7 +27107,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27307,7 +27313,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27464,6 +27470,212 @@
       </c>
       <c r="BP128">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7484659</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45634.27083333334</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>6</v>
+      </c>
+      <c r="O129" t="s">
+        <v>166</v>
+      </c>
+      <c r="P129" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q129">
+        <v>1.95</v>
+      </c>
+      <c r="R129">
+        <v>2.5</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.25</v>
+      </c>
+      <c r="U129">
+        <v>3.6</v>
+      </c>
+      <c r="V129">
+        <v>2.26</v>
+      </c>
+      <c r="W129">
+        <v>1.58</v>
+      </c>
+      <c r="X129">
+        <v>4.75</v>
+      </c>
+      <c r="Y129">
+        <v>1.16</v>
+      </c>
+      <c r="Z129">
+        <v>1.5</v>
+      </c>
+      <c r="AA129">
+        <v>4.5</v>
+      </c>
+      <c r="AB129">
+        <v>5.5</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>13</v>
+      </c>
+      <c r="AE129">
+        <v>1.1</v>
+      </c>
+      <c r="AF129">
+        <v>4.8</v>
+      </c>
+      <c r="AG129">
+        <v>1.53</v>
+      </c>
+      <c r="AH129">
+        <v>2.38</v>
+      </c>
+      <c r="AI129">
+        <v>1.67</v>
+      </c>
+      <c r="AJ129">
+        <v>2.1</v>
+      </c>
+      <c r="AK129">
+        <v>1.14</v>
+      </c>
+      <c r="AL129">
+        <v>1.16</v>
+      </c>
+      <c r="AM129">
+        <v>2.25</v>
+      </c>
+      <c r="AN129">
+        <v>1.86</v>
+      </c>
+      <c r="AO129">
+        <v>0.86</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>0.75</v>
+      </c>
+      <c r="AR129">
+        <v>1.89</v>
+      </c>
+      <c r="AS129">
+        <v>0.93</v>
+      </c>
+      <c r="AT129">
+        <v>2.82</v>
+      </c>
+      <c r="AU129">
+        <v>7</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>13</v>
+      </c>
+      <c r="AZ129">
+        <v>5</v>
+      </c>
+      <c r="BA129">
+        <v>7</v>
+      </c>
+      <c r="BB129">
+        <v>1</v>
+      </c>
+      <c r="BC129">
+        <v>8</v>
+      </c>
+      <c r="BD129">
+        <v>1.18</v>
+      </c>
+      <c r="BE129">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF129">
+        <v>6.65</v>
+      </c>
+      <c r="BG129">
+        <v>1.21</v>
+      </c>
+      <c r="BH129">
+        <v>3.44</v>
+      </c>
+      <c r="BI129">
+        <v>1.44</v>
+      </c>
+      <c r="BJ129">
+        <v>2.43</v>
+      </c>
+      <c r="BK129">
+        <v>2.25</v>
+      </c>
+      <c r="BL129">
+        <v>1.9</v>
+      </c>
+      <c r="BM129">
+        <v>2.26</v>
+      </c>
+      <c r="BN129">
+        <v>1.51</v>
+      </c>
+      <c r="BO129">
+        <v>2.97</v>
+      </c>
+      <c r="BP129">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -27412,16 +27412,16 @@
         <v>6</v>
       </c>
       <c r="AW128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY128">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA128">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20242025.xlsx
@@ -27612,22 +27612,22 @@
         <v>2.82</v>
       </c>
       <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129">
+        <v>9</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>20</v>
+      </c>
+      <c r="AZ129">
         <v>7</v>
-      </c>
-      <c r="AV129">
-        <v>5</v>
-      </c>
-      <c r="AW129">
-        <v>6</v>
-      </c>
-      <c r="AX129">
-        <v>0</v>
-      </c>
-      <c r="AY129">
-        <v>13</v>
-      </c>
-      <c r="AZ129">
-        <v>5</v>
       </c>
       <c r="BA129">
         <v>7</v>
